--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,6 +757,692 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>moviesverse.co</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2022-09-02T05:12:56Z</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1 years 8 months 9 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>moviesverse.co</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2020-09-02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2022-09-02T05:12:56Z</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1 years 8 months 9 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ildc.in</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2005-04-07</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17 years 1 months 4 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CODINGSHIKSHA.COM</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2018-09-26</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2023-09-26T05:05:57Z</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3 years 7 months 15 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IPLT20.COM</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2007-10-30</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2022-10-30T12:24:32Z</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14 years 6 months 11 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CODINGSHIKSHA.COM</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2018-09-26</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2023-09-26T05:05:57Z</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3 years 7 months 15 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ildc.in</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2005-04-07</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17 years 1 months 5 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>tdil-dc.in</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2009-12-23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12 years 4 months 19 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CODINGSHIKSHA.COM</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2018-09-26</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2023-09-26T05:05:57Z</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3 years 7 months 16 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ZAPAK.COM</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2006-04-03</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2023-04-03T10:05:28Z</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16 years 1 months 9 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CODINGSHIKSHA.COM</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2018-09-26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2023-09-26T05:05:57Z</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3 years 7 months 16 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ildc.in</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2005-04-07</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17 years 1 months 5 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ildc.in</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2005-04-07</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17 years 1 months 5 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ZAPAK.COM</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2006-04-03</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2023-04-03T10:05:28Z</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16 years 1 months 9 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>google.com</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1997-09-15</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2028-09-13T07:00:00+0000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>24 years 7 months 27 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CODINGSHIKSHA.COM</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2018-09-26</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2023-09-26T05:05:57Z</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3 years 7 months 16 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CODINGSHIKSHA.COM</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2018-09-26</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2023-09-26T05:05:57Z</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3 years 7 months 16 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>google.com</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1997-09-15</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2028-09-13T07:00:00+0000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>24 years 7 months 27 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>FACEBOOK.COM</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1997-03-29</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2031-03-30T04:00:00Z</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>25 years 1 months 13 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>cricinfo.com</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1999-02-05</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2023-02-05T05:00:00Z</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>23 years 3 months 7 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>google.com</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1997-09-15</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2028-09-13T07:00:00+0000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>24 years 7 months 27 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CODINGSHIKSHA.COM</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2018-09-26</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2023-09-26T05:05:57Z</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3 years 7 months 16 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CODINGSHIKSHA.COM</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2018-09-26</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2023-09-26T05:05:57Z</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3 years 7 months 16 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>GETBOOTSTRAP.COM</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2012-01-10</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2023-01-10T16:42:14Z</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10 years 4 months 2 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FACEBOOK.COM</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1997-03-29</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2031-03-30T04:00:00Z</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>25 years 1 months 13 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ildc.in</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2005-04-07</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17 years 1 months 5 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>cricinfo.com</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1999-02-05</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2023-02-05T05:00:00Z</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>23 years 3 months 7 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>localisation.gov.in</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2013-12-06</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8 years 5 months 6 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>bing.com</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1996-01-29</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2023-01-30T00:00:00+0000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>26 years 3 months 13 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ict-ipr.in</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2014-08-25</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7 years 8 months 17 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ict-ipr.in</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2014-08-25</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7 years 8 months 17 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>delhitourism.gov.in</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2004-12-17</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>17 years 4 months 25 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>google.com</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1997-09-15</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2028-09-13T07:00:00+0000</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>24 years 7 months 29 days</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
